--- a/demos/structures.xlsx
+++ b/demos/structures.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25320" windowHeight="14700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="structure" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="572">
   <si>
     <t>nofiness</t>
   </si>
@@ -1735,6 +1735,9 @@
   </si>
   <si>
     <t>HC Centre des brûlés</t>
+  </si>
+  <si>
+    <t>ORL SLS</t>
   </si>
 </sst>
 </file>
@@ -2809,7 +2812,7 @@
         <v>79</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>76</v>
+        <v>571</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>76</v>

--- a/demos/structures.xlsx
+++ b/demos/structures.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25320" windowHeight="14700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19320" windowHeight="12120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="structure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">structure!$A$1:$AMK$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">structure!$A$1:$AMK$160</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="577">
   <si>
     <t>nofiness</t>
   </si>
@@ -1668,9 +1668,6 @@
     <t>Réanimation médicale</t>
   </si>
   <si>
-    <t>Gériarie</t>
-  </si>
-  <si>
     <t>Hématologie Clinique</t>
   </si>
   <si>
@@ -1738,6 +1735,24 @@
   </si>
   <si>
     <t>ORL SLS</t>
+  </si>
+  <si>
+    <t>Gériatrie</t>
+  </si>
+  <si>
+    <t>2669</t>
+  </si>
+  <si>
+    <t>095J</t>
+  </si>
+  <si>
+    <t>76095J</t>
+  </si>
+  <si>
+    <t>PHARMACO CLI HDJ</t>
+  </si>
+  <si>
+    <t>Pharmacologie clinique</t>
   </si>
 </sst>
 </file>
@@ -2081,10 +2096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK159"/>
+  <dimension ref="A1:AMK160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,7 +2247,7 @@
         <v>113</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>114</v>
@@ -2261,7 +2276,7 @@
         <v>117</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>114</v>
@@ -2290,7 +2305,7 @@
         <v>120</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>114</v>
@@ -2319,7 +2334,7 @@
         <v>124</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>114</v>
@@ -2348,10 +2363,10 @@
         <v>67</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>35</v>
@@ -2377,10 +2392,10 @@
         <v>67</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>35</v>
@@ -2406,10 +2421,10 @@
         <v>67</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>35</v>
@@ -2435,10 +2450,10 @@
         <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>35</v>
@@ -2464,10 +2479,10 @@
         <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
@@ -2493,10 +2508,10 @@
         <v>67</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>35</v>
@@ -2522,10 +2537,10 @@
         <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>35</v>
@@ -2812,7 +2827,7 @@
         <v>79</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>76</v>
@@ -3192,7 +3207,7 @@
         <v>525</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>137</v>
@@ -3221,7 +3236,7 @@
         <v>525</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>137</v>
@@ -3250,7 +3265,7 @@
         <v>525</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>137</v>
@@ -3496,7 +3511,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>396</v>
@@ -3769,10 +3784,10 @@
         <v>265</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>54</v>
@@ -3798,10 +3813,10 @@
         <v>268</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>54</v>
@@ -3827,10 +3842,10 @@
         <v>265</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>54</v>
@@ -3943,10 +3958,10 @@
         <v>461</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>54</v>
@@ -3972,10 +3987,10 @@
         <v>465</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>54</v>
@@ -4001,7 +4016,7 @@
         <v>203</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>204</v>
@@ -4030,7 +4045,7 @@
         <v>207</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>203</v>
@@ -4059,7 +4074,7 @@
         <v>203</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>204</v>
@@ -4233,10 +4248,10 @@
         <v>244</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>54</v>
@@ -4262,10 +4277,10 @@
         <v>247</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>54</v>
@@ -4291,10 +4306,10 @@
         <v>244</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>54</v>
@@ -4320,10 +4335,10 @@
         <v>262</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>54</v>
@@ -4349,10 +4364,10 @@
         <v>253</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>54</v>
@@ -4378,10 +4393,10 @@
         <v>256</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>54</v>
@@ -4407,10 +4422,10 @@
         <v>253</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>54</v>
@@ -4766,31 +4781,31 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>750100042</v>
+        <v>750100075</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="1">
-        <v>2297</v>
+        <v>19</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>572</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>532</v>
+        <v>574</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4801,22 +4816,22 @@
         <v>9</v>
       </c>
       <c r="C93" s="1">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>15</v>
@@ -4830,22 +4845,22 @@
         <v>9</v>
       </c>
       <c r="C94" s="1">
-        <v>2450</v>
+        <v>2299</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>15</v>
@@ -4853,28 +4868,28 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>750100075</v>
+        <v>750100042</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2450</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>11</v>
+        <v>537</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>12</v>
+        <v>538</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>13</v>
+        <v>539</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>14</v>
+        <v>554</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>14</v>
+        <v>554</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>15</v>
@@ -4887,17 +4902,17 @@
       <c r="B96" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C96" s="1">
-        <v>1019</v>
+      <c r="C96" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>14</v>
@@ -4911,28 +4926,28 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>750100042</v>
+        <v>750100075</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C97" s="1">
-        <v>1366</v>
+        <v>1019</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>513</v>
+        <v>17</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>514</v>
+        <v>18</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>548</v>
+        <v>14</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>548</v>
+        <v>14</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>15</v>
@@ -4945,23 +4960,23 @@
       <c r="B98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>515</v>
+      <c r="C98" s="1">
+        <v>1366</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>516</v>
+        <v>216</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>15</v>
@@ -4974,23 +4989,23 @@
       <c r="B99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="1">
-        <v>2239</v>
+      <c r="C99" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>15</v>
@@ -4998,28 +5013,28 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>750100075</v>
+        <v>750100042</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>179</v>
+        <v>9</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2239</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>180</v>
+        <v>519</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>181</v>
+        <v>520</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>182</v>
+        <v>521</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>183</v>
+        <v>571</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>184</v>
+        <v>571</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>15</v>
@@ -5032,14 +5047,14 @@
       <c r="B101" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="1">
-        <v>1029</v>
+      <c r="C101" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>182</v>
@@ -5056,28 +5071,28 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>750100042</v>
+        <v>750100075</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>315</v>
+        <v>19</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1029</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>316</v>
+        <v>185</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>318</v>
+        <v>182</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>557</v>
+        <v>183</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>319</v>
+        <v>184</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>15</v>
@@ -5091,19 +5106,19 @@
         <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>319</v>
@@ -5120,22 +5135,22 @@
         <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>386</v>
+        <v>323</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>387</v>
+        <v>556</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>387</v>
+        <v>319</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>15</v>
@@ -5148,23 +5163,23 @@
       <c r="B105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="1">
-        <v>2321</v>
+      <c r="C105" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>325</v>
+        <v>385</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>326</v>
+        <v>386</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>556</v>
+        <v>387</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>327</v>
+        <v>387</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>15</v>
@@ -5178,19 +5193,19 @@
         <v>9</v>
       </c>
       <c r="C106" s="1">
-        <v>1904</v>
+        <v>2321</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>327</v>
@@ -5207,19 +5222,19 @@
         <v>9</v>
       </c>
       <c r="C107" s="1">
-        <v>2036</v>
+        <v>1904</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>327</v>
@@ -5236,19 +5251,19 @@
         <v>9</v>
       </c>
       <c r="C108" s="1">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>327</v>
@@ -5264,20 +5279,20 @@
       <c r="B109" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>388</v>
+      <c r="C109" s="1">
+        <v>2037</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>47</v>
+        <v>344</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>327</v>
@@ -5288,28 +5303,28 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>750100075</v>
+        <v>750100042</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>22</v>
+        <v>389</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>23</v>
+        <v>390</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>564</v>
+        <v>327</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>15</v>
@@ -5322,23 +5337,23 @@
       <c r="B111" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C111" s="1">
-        <v>1032</v>
+      <c r="C111" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>15</v>
@@ -5352,22 +5367,22 @@
         <v>19</v>
       </c>
       <c r="C112" s="1">
-        <v>2032</v>
+        <v>1032</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>15</v>
@@ -5375,28 +5390,28 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>750100042</v>
+        <v>750100075</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>331</v>
+        <v>19</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2032</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>332</v>
+        <v>27</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>333</v>
+        <v>28</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>334</v>
+        <v>29</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>335</v>
+        <v>564</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>335</v>
+        <v>564</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>15</v>
@@ -5410,19 +5425,19 @@
         <v>9</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>335</v>
@@ -5439,25 +5454,25 @@
         <v>9</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>489</v>
+        <v>336</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>161</v>
+        <v>337</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>490</v>
+        <v>338</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>491</v>
+        <v>339</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>492</v>
+        <v>340</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>493</v>
+        <v>335</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>309</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -5467,14 +5482,14 @@
       <c r="B116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C116" s="1">
-        <v>1535</v>
+      <c r="C116" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>491</v>
@@ -5496,23 +5511,23 @@
       <c r="B117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>305</v>
+      <c r="C117" s="1">
+        <v>1535</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>306</v>
+        <v>494</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>307</v>
+        <v>491</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>308</v>
+        <v>492</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>308</v>
+        <v>493</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>309</v>
@@ -5526,16 +5541,16 @@
         <v>9</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>308</v>
@@ -5554,17 +5569,17 @@
       <c r="B119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="1">
-        <v>1361</v>
+      <c r="C119" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>313</v>
+        <v>16</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>308</v>
@@ -5584,25 +5599,25 @@
         <v>9</v>
       </c>
       <c r="C120" s="1">
-        <v>2238</v>
+        <v>1361</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>482</v>
+        <v>313</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>483</v>
+        <v>314</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>484</v>
+        <v>307</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>552</v>
+        <v>308</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5613,22 +5628,22 @@
         <v>9</v>
       </c>
       <c r="C121" s="1">
-        <v>2248</v>
+        <v>2238</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>431</v>
+        <v>551</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>422</v>
+        <v>349</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>350</v>
@@ -5642,22 +5657,22 @@
         <v>9</v>
       </c>
       <c r="C122" s="1">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>486</v>
+        <v>429</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>487</v>
+        <v>430</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>431</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>488</v>
+        <v>422</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>350</v>
@@ -5671,22 +5686,22 @@
         <v>9</v>
       </c>
       <c r="C123" s="1">
-        <v>1362</v>
+        <v>2247</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>361</v>
+        <v>485</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>362</v>
+        <v>486</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>363</v>
+        <v>487</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>349</v>
+        <v>488</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>350</v>
@@ -5700,16 +5715,16 @@
         <v>9</v>
       </c>
       <c r="C124" s="1">
-        <v>1472</v>
+        <v>1362</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>364</v>
@@ -5729,16 +5744,16 @@
         <v>9</v>
       </c>
       <c r="C125" s="1">
-        <v>1363</v>
+        <v>1472</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>364</v>
@@ -5758,13 +5773,13 @@
         <v>9</v>
       </c>
       <c r="C126" s="1">
-        <v>1524</v>
+        <v>1363</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>364</v>
@@ -5786,23 +5801,23 @@
       <c r="B127" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>501</v>
+      <c r="C127" s="1">
+        <v>1524</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>502</v>
+        <v>371</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>503</v>
+        <v>364</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>553</v>
+        <v>364</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>504</v>
+        <v>349</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>350</v>
@@ -5815,20 +5830,20 @@
       <c r="B128" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C128" s="1">
-        <v>1974</v>
+      <c r="C128" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>503</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>504</v>
@@ -5845,22 +5860,22 @@
         <v>9</v>
       </c>
       <c r="C129" s="1">
-        <v>2480</v>
+        <v>1974</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>506</v>
+        <v>185</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>350</v>
@@ -5874,16 +5889,16 @@
         <v>9</v>
       </c>
       <c r="C130" s="1">
-        <v>2485</v>
+        <v>2480</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>205</v>
+        <v>506</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>509</v>
@@ -5903,22 +5918,22 @@
         <v>9</v>
       </c>
       <c r="C131" s="1">
-        <v>2030</v>
+        <v>2485</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>354</v>
+        <v>511</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>355</v>
+        <v>512</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>355</v>
+        <v>509</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>349</v>
+        <v>510</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>350</v>
@@ -5931,20 +5946,20 @@
       <c r="B132" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>356</v>
+      <c r="C132" s="1">
+        <v>2030</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>357</v>
+        <v>27</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>349</v>
@@ -5961,22 +5976,22 @@
         <v>9</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>420</v>
+        <v>356</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>65</v>
+        <v>357</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>421</v>
+        <v>358</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>422</v>
+        <v>359</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>422</v>
+        <v>349</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>350</v>
@@ -5990,19 +6005,19 @@
         <v>9</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>424</v>
+        <v>65</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>422</v>
@@ -6018,17 +6033,17 @@
       <c r="B135" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C135" s="1">
-        <v>1364</v>
+      <c r="C135" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>427</v>
@@ -6047,23 +6062,23 @@
       <c r="B136" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>347</v>
+      <c r="C136" s="1">
+        <v>1364</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>21</v>
+        <v>432</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>349</v>
+        <v>427</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>350</v>
@@ -6077,16 +6092,16 @@
         <v>9</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>349</v>
@@ -6106,22 +6121,22 @@
         <v>9</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>441</v>
+        <v>351</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>442</v>
+        <v>24</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>443</v>
+        <v>352</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>444</v>
+        <v>353</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>444</v>
+        <v>349</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>444</v>
+        <v>349</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>350</v>
@@ -6134,17 +6149,17 @@
       <c r="B139" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="1">
-        <v>1534</v>
+      <c r="C139" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>444</v>
@@ -6164,16 +6179,16 @@
         <v>9</v>
       </c>
       <c r="C140" s="1">
-        <v>2464</v>
+        <v>1534</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>444</v>
@@ -6192,23 +6207,23 @@
       <c r="B141" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>434</v>
+      <c r="C141" s="1">
+        <v>2464</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>350</v>
@@ -6221,14 +6236,14 @@
       <c r="B142" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C142" s="1">
-        <v>1533</v>
+      <c r="C142" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>76</v>
@@ -6251,13 +6266,13 @@
         <v>9</v>
       </c>
       <c r="C143" s="1">
-        <v>2506</v>
+        <v>1533</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>76</v>
@@ -6280,16 +6295,16 @@
         <v>9</v>
       </c>
       <c r="C144" s="1">
-        <v>1973</v>
+        <v>2506</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>497</v>
+        <v>76</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>76</v>
@@ -6309,16 +6324,16 @@
         <v>9</v>
       </c>
       <c r="C145" s="1">
-        <v>1985</v>
+        <v>1973</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>76</v>
@@ -6337,26 +6352,26 @@
       <c r="B146" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>372</v>
+      <c r="C146" s="1">
+        <v>1985</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>373</v>
+        <v>498</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>374</v>
+        <v>499</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>85</v>
+        <v>350</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -6367,16 +6382,16 @@
         <v>9</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>375</v>
@@ -6396,19 +6411,19 @@
         <v>9</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>375</v>
@@ -6419,28 +6434,28 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>750100075</v>
+        <v>750100042</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C149" s="1">
-        <v>1469</v>
+        <v>9</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>103</v>
+        <v>381</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>104</v>
+        <v>382</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>105</v>
+        <v>383</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>562</v>
+        <v>383</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>85</v>
@@ -6454,22 +6469,22 @@
         <v>19</v>
       </c>
       <c r="C150" s="1">
-        <v>1421</v>
+        <v>1469</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>85</v>
@@ -6483,22 +6498,22 @@
         <v>19</v>
       </c>
       <c r="C151" s="1">
-        <v>2555</v>
+        <v>1421</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>108</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>85</v>
@@ -6506,28 +6521,28 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>750100042</v>
+        <v>750100075</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>470</v>
+        <v>19</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2555</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>471</v>
+        <v>109</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>472</v>
+        <v>110</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>473</v>
+        <v>108</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>85</v>
@@ -6540,23 +6555,23 @@
       <c r="B153" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C153" s="1">
-        <v>2358</v>
+      <c r="C153" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>476</v>
+        <v>549</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>85</v>
@@ -6569,23 +6584,23 @@
       <c r="B154" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>451</v>
+      <c r="C154" s="1">
+        <v>2358</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>73</v>
+        <v>474</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>84</v>
+        <v>550</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>85</v>
@@ -6598,17 +6613,17 @@
       <c r="B155" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C155" s="1">
-        <v>2483</v>
+      <c r="C155" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>455</v>
+        <v>73</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>454</v>
@@ -6622,25 +6637,25 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>750100075</v>
+        <v>750100042</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>80</v>
+        <v>9</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2483</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>81</v>
+        <v>455</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>82</v>
+        <v>456</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>83</v>
+        <v>457</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>544</v>
+        <v>454</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>84</v>
@@ -6657,16 +6672,16 @@
         <v>19</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>540</v>
+        <v>80</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>541</v>
+        <v>81</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>542</v>
+        <v>82</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>543</v>
+        <v>83</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>544</v>
@@ -6686,13 +6701,13 @@
         <v>19</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D158" s="1">
-        <v>545</v>
-      </c>
-      <c r="E158" s="1">
-        <v>76545</v>
+        <v>540</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>543</v>
@@ -6709,30 +6724,59 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>750100042</v>
+        <v>750100075</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C159" s="1">
+        <v>19</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D159" s="1">
+        <v>545</v>
+      </c>
+      <c r="E159" s="1">
+        <v>76545</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>750100042</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="1">
         <v>2543</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F160" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H159" s="1" t="s">
+      <c r="H160" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I159" s="1" t="s">
+      <c r="I160" s="1" t="s">
         <v>481</v>
       </c>
     </row>

--- a/demos/structures.xlsx
+++ b/demos/structures.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="579">
   <si>
     <t>nofiness</t>
   </si>
@@ -183,9 +183,6 @@
     <t>HC Oncologie Medicale</t>
   </si>
   <si>
-    <t>Oncologie Médicale</t>
-  </si>
-  <si>
     <t>HI-3RO</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>HDJ Centre Maladies Sein</t>
   </si>
   <si>
-    <t>Centre des Maladies du Sein</t>
-  </si>
-  <si>
     <t xml:space="preserve">074 </t>
   </si>
   <si>
@@ -501,9 +495,6 @@
     <t>Reanimation medicale SLS</t>
   </si>
   <si>
-    <t>Réanimation Médicale SLS</t>
-  </si>
-  <si>
     <t>0402</t>
   </si>
   <si>
@@ -576,9 +567,6 @@
     <t>Maladies infectieuses SLS</t>
   </si>
   <si>
-    <t>Maladies Infectieuses et Tropicales</t>
-  </si>
-  <si>
     <t>510J</t>
   </si>
   <si>
@@ -681,9 +669,6 @@
     <t>Hematologie Adultes</t>
   </si>
   <si>
-    <t>Hématologie Adultes</t>
-  </si>
-  <si>
     <t>550J</t>
   </si>
   <si>
@@ -852,9 +837,6 @@
     <t>Hématologie sénior</t>
   </si>
   <si>
-    <t>Hématologie Sénior</t>
-  </si>
-  <si>
     <t>640J</t>
   </si>
   <si>
@@ -900,9 +882,6 @@
     <t>HC NEURO ONCO</t>
   </si>
   <si>
-    <t>Neuro-Oncologie</t>
-  </si>
-  <si>
     <t>680J</t>
   </si>
   <si>
@@ -981,9 +960,6 @@
     <t>HC Medecine interne aval des urgences</t>
   </si>
   <si>
-    <t>Med Int Aval des Urgences</t>
-  </si>
-  <si>
     <t>0931</t>
   </si>
   <si>
@@ -1029,9 +1005,6 @@
     <t>Reanimation medicale et toxicologie</t>
   </si>
   <si>
-    <t>Réanimation Médicale &amp; Toxicologie</t>
-  </si>
-  <si>
     <t>0936</t>
   </si>
   <si>
@@ -1488,9 +1461,6 @@
     <t>HDJ Qutenza</t>
   </si>
   <si>
-    <t>Medecine de la Douleur</t>
-  </si>
-  <si>
     <t>0232</t>
   </si>
   <si>
@@ -1536,9 +1506,6 @@
     <t>Medecine addictologique</t>
   </si>
   <si>
-    <t>Psychiatrie et Medecine Addictologique</t>
-  </si>
-  <si>
     <t>47510J</t>
   </si>
   <si>
@@ -1671,12 +1638,6 @@
     <t>Hématologie Clinique</t>
   </si>
   <si>
-    <t>Réanimation Chirurgicale LRB</t>
-  </si>
-  <si>
-    <t>Réanimation Chirurgicale</t>
-  </si>
-  <si>
     <t>Céphalées</t>
   </si>
   <si>
@@ -1701,24 +1662,12 @@
     <t>Immuno-hématologie</t>
   </si>
   <si>
-    <t>Immuno-pathologie Clinique</t>
-  </si>
-  <si>
     <t>Hématologie greffe</t>
   </si>
   <si>
-    <t>Réanimation Chirurgicale &amp; HDJ KT</t>
-  </si>
-  <si>
     <t>Chirurgie plastique &amp; brûlés</t>
   </si>
   <si>
-    <t>Médecine interne Maladies auto imm et patho vasc</t>
-  </si>
-  <si>
-    <t>Médecine interne Maladies systémiques</t>
-  </si>
-  <si>
     <t>2379</t>
   </si>
   <si>
@@ -1728,9 +1677,6 @@
     <t>HdJ Centre des brûlés</t>
   </si>
   <si>
-    <t>Reanimation Centre des brûlés</t>
-  </si>
-  <si>
     <t>HC Centre des brûlés</t>
   </si>
   <si>
@@ -1753,6 +1699,66 @@
   </si>
   <si>
     <t>Pharmacologie clinique</t>
+  </si>
+  <si>
+    <t>Néonatalogie</t>
+  </si>
+  <si>
+    <t>Hématologie adultes</t>
+  </si>
+  <si>
+    <t>Immuno-pathologie clinique</t>
+  </si>
+  <si>
+    <t>Hématologie clinique</t>
+  </si>
+  <si>
+    <t>Centre des maladies du sein</t>
+  </si>
+  <si>
+    <t>Neuro-oncologie</t>
+  </si>
+  <si>
+    <t>Oncologie médicale</t>
+  </si>
+  <si>
+    <t>Maladies infectieuses et tropicales</t>
+  </si>
+  <si>
+    <t>Med int aval des urgences</t>
+  </si>
+  <si>
+    <t>Réanimation médicale &amp; toxicologie</t>
+  </si>
+  <si>
+    <t>Medecine de la douleur</t>
+  </si>
+  <si>
+    <t>Psychiatrie et médecine addictologique</t>
+  </si>
+  <si>
+    <t>Réanimation chirurgicale &amp; HDJ KT</t>
+  </si>
+  <si>
+    <t>Réanimation chirurgicale LRB</t>
+  </si>
+  <si>
+    <t>Réanimation chirurgicale</t>
+  </si>
+  <si>
+    <t>UCA Radio interventionnelle</t>
+  </si>
+  <si>
+    <t>Médecine interne maladies systémiques</t>
+  </si>
+  <si>
+    <t>Médecine interne maladies auto imm et patho vasc</t>
+  </si>
+  <si>
+    <t>Réanimation médicale SLS</t>
+  </si>
+  <si>
+    <t>Réanimation Centre des brûlés</t>
   </si>
 </sst>
 </file>
@@ -2098,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,22 +2186,22 @@
         <v>1428</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2206,25 +2212,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2238,22 +2244,22 @@
         <v>2231</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2267,22 +2273,22 @@
         <v>2232</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2296,22 +2302,22 @@
         <v>2233</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2322,25 +2328,25 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2351,22 +2357,22 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>35</v>
@@ -2383,19 +2389,19 @@
         <v>1210</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>35</v>
@@ -2412,19 +2418,19 @@
         <v>2286</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>35</v>
@@ -2441,19 +2447,19 @@
         <v>1971</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>35</v>
@@ -2470,19 +2476,19 @@
         <v>1969</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
@@ -2499,19 +2505,19 @@
         <v>2285</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>35</v>
@@ -2528,19 +2534,19 @@
         <v>1970</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>35</v>
@@ -2554,22 +2560,22 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>35</v>
@@ -2586,19 +2592,19 @@
         <v>1479</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>35</v>
@@ -2786,22 +2792,22 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>35</v>
@@ -2818,19 +2824,19 @@
         <v>1419</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>35</v>
@@ -2844,25 +2850,25 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2876,22 +2882,22 @@
         <v>2031</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2902,25 +2908,25 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2931,25 +2937,25 @@
         <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2963,22 +2969,22 @@
         <v>1213</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2992,22 +2998,22 @@
         <v>2471</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3021,22 +3027,22 @@
         <v>2501</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3047,25 +3053,25 @@
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3079,22 +3085,22 @@
         <v>1423</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3105,25 +3111,25 @@
         <v>19</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3134,25 +3140,25 @@
         <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3166,22 +3172,22 @@
         <v>1020</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3192,25 +3198,25 @@
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3224,22 +3230,22 @@
         <v>1536</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3253,22 +3259,22 @@
         <v>2033</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3279,25 +3285,25 @@
         <v>19</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="I40" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3311,22 +3317,22 @@
         <v>1277</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3340,22 +3346,22 @@
         <v>1024</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="I42" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3366,25 +3372,25 @@
         <v>19</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3398,22 +3404,22 @@
         <v>1209</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3427,22 +3433,22 @@
         <v>1422</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3456,22 +3462,22 @@
         <v>1635</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3485,22 +3491,22 @@
         <v>2502</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3511,25 +3517,25 @@
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3543,22 +3549,22 @@
         <v>1636</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3569,25 +3575,25 @@
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3601,22 +3607,22 @@
         <v>1753</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>393</v>
+        <v>559</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3627,83 +3633,83 @@
         <v>19</v>
       </c>
       <c r="C52" s="1">
-        <v>2008</v>
+        <v>1417</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>214</v>
+        <v>563</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>214</v>
+        <v>563</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>750100075</v>
+        <v>750100042</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2009</v>
+        <v>9</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>226</v>
+        <v>450</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>227</v>
+        <v>451</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>213</v>
+        <v>452</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>214</v>
+        <v>562</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>214</v>
+        <v>537</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>750100075</v>
+        <v>750100042</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2010</v>
+        <v>9</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>228</v>
+        <v>454</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>230</v>
+        <v>456</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>214</v>
+        <v>562</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>214</v>
+        <v>537</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3713,26 +3719,26 @@
       <c r="B55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="1">
-        <v>2011</v>
+      <c r="C55" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>214</v>
+        <v>546</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3743,25 +3749,25 @@
         <v>19</v>
       </c>
       <c r="C56" s="1">
-        <v>1417</v>
+        <v>1027</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>61</v>
+        <v>546</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3771,26 +3777,26 @@
       <c r="B57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="1">
-        <v>1425</v>
+      <c r="C57" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>557</v>
+        <v>200</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3800,26 +3806,26 @@
       <c r="B58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="1">
-        <v>1426</v>
+      <c r="C58" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>557</v>
+        <v>232</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>557</v>
+        <v>232</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3829,26 +3835,26 @@
       <c r="B59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>269</v>
+      <c r="C59" s="1">
+        <v>1031</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>557</v>
+        <v>232</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>557</v>
+        <v>232</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3858,26 +3864,26 @@
       <c r="B60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>215</v>
+      <c r="C60" s="1">
+        <v>2008</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3888,25 +3894,25 @@
         <v>19</v>
       </c>
       <c r="C61" s="1">
-        <v>1028</v>
+        <v>2009</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3916,84 +3922,84 @@
       <c r="B62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>750100042</v>
+        <v>750100075</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>458</v>
+        <v>19</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2011</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>459</v>
+        <v>226</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>460</v>
+        <v>227</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>461</v>
+        <v>209</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>548</v>
+        <v>210</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>548</v>
+        <v>210</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>750100042</v>
+        <v>750100075</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>462</v>
+        <v>211</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>463</v>
+        <v>212</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>464</v>
+        <v>213</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>465</v>
+        <v>214</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4003,26 +4009,26 @@
       <c r="B65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>200</v>
+      <c r="C65" s="1">
+        <v>1028</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>560</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>204</v>
+        <v>560</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4032,26 +4038,26 @@
       <c r="B66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="1">
-        <v>1027</v>
+      <c r="C66" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>560</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>203</v>
+        <v>560</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -4061,26 +4067,26 @@
       <c r="B67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>208</v>
+      <c r="C67" s="1">
+        <v>2312</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>560</v>
+        <v>270</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -4090,26 +4096,26 @@
       <c r="B68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>233</v>
+      <c r="C68" s="1">
+        <v>2313</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -4120,25 +4126,25 @@
         <v>19</v>
       </c>
       <c r="C69" s="1">
-        <v>1031</v>
+        <v>2314</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -4149,25 +4155,25 @@
         <v>19</v>
       </c>
       <c r="C70" s="1">
-        <v>2312</v>
+        <v>1425</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>275</v>
+        <v>544</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>276</v>
+        <v>544</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -4178,25 +4184,25 @@
         <v>19</v>
       </c>
       <c r="C71" s="1">
-        <v>2313</v>
+        <v>1426</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>275</v>
+        <v>544</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>276</v>
+        <v>544</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -4206,26 +4212,26 @@
       <c r="B72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="1">
-        <v>2314</v>
+      <c r="C72" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>275</v>
+        <v>544</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>276</v>
+        <v>544</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -4236,25 +4242,25 @@
         <v>19</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -4268,22 +4274,22 @@
         <v>1017</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -4297,22 +4303,22 @@
         <v>2350</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -4326,22 +4332,22 @@
         <v>1424</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -4352,25 +4358,25 @@
         <v>19</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -4384,22 +4390,22 @@
         <v>1025</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -4410,25 +4416,25 @@
         <v>19</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -4438,26 +4444,26 @@
       <c r="B80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="1">
-        <v>2546</v>
+      <c r="C80" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>289</v>
+        <v>50</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>290</v>
+        <v>51</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>291</v>
+        <v>52</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>292</v>
+        <v>565</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>292</v>
+        <v>565</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -4468,25 +4474,25 @@
         <v>19</v>
       </c>
       <c r="C81" s="1">
-        <v>2547</v>
+        <v>1023</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>293</v>
+        <v>54</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>294</v>
+        <v>55</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>295</v>
+        <v>56</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>292</v>
+        <v>565</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>292</v>
+        <v>565</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -4496,26 +4502,26 @@
       <c r="B82" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>93</v>
+      <c r="C82" s="1">
+        <v>1418</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>97</v>
+        <v>565</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>97</v>
+        <v>565</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -4526,25 +4532,25 @@
         <v>19</v>
       </c>
       <c r="C83" s="1">
-        <v>1018</v>
+        <v>2546</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>97</v>
+        <v>564</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>97</v>
+        <v>564</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -4555,25 +4561,25 @@
         <v>19</v>
       </c>
       <c r="C84" s="1">
-        <v>1420</v>
+        <v>2547</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>100</v>
+        <v>286</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>97</v>
+        <v>564</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>97</v>
+        <v>564</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4584,25 +4590,25 @@
         <v>19</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="G85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -4613,25 +4619,25 @@
         <v>19</v>
       </c>
       <c r="C86" s="1">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="G86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4642,25 +4648,25 @@
         <v>19</v>
       </c>
       <c r="C87" s="1">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -4671,25 +4677,25 @@
         <v>19</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G88" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -4703,22 +4709,22 @@
         <v>1030</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4729,25 +4735,25 @@
         <v>19</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="G90" s="1" t="s">
-        <v>159</v>
+        <v>577</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4761,22 +4767,22 @@
         <v>1427</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4787,25 +4793,25 @@
         <v>19</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4819,19 +4825,19 @@
         <v>2297</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>15</v>
@@ -4848,19 +4854,19 @@
         <v>2299</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>15</v>
@@ -4877,19 +4883,19 @@
         <v>2450</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>15</v>
@@ -4964,19 +4970,19 @@
         <v>1366</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>15</v>
@@ -4990,22 +4996,22 @@
         <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>15</v>
@@ -5022,19 +5028,19 @@
         <v>2239</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>15</v>
@@ -5048,22 +5054,22 @@
         <v>19</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="H101" s="1" t="s">
-        <v>184</v>
+        <v>566</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>15</v>
@@ -5080,19 +5086,19 @@
         <v>1029</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>184</v>
+        <v>566</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>15</v>
@@ -5106,22 +5112,22 @@
         <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>319</v>
+        <v>567</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>15</v>
@@ -5135,22 +5141,22 @@
         <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>319</v>
+        <v>567</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>15</v>
@@ -5164,22 +5170,22 @@
         <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>15</v>
@@ -5196,19 +5202,19 @@
         <v>2321</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>15</v>
@@ -5225,19 +5231,19 @@
         <v>1904</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>15</v>
@@ -5254,19 +5260,19 @@
         <v>2036</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>15</v>
@@ -5283,19 +5289,19 @@
         <v>2037</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>15</v>
@@ -5309,22 +5315,22 @@
         <v>9</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>15</v>
@@ -5350,10 +5356,10 @@
         <v>23</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>15</v>
@@ -5379,10 +5385,10 @@
         <v>26</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>15</v>
@@ -5408,10 +5414,10 @@
         <v>29</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>15</v>
@@ -5425,22 +5431,22 @@
         <v>9</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>335</v>
+        <v>568</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>335</v>
+        <v>568</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>15</v>
@@ -5454,22 +5460,22 @@
         <v>9</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>335</v>
+        <v>568</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>15</v>
@@ -5483,25 +5489,25 @@
         <v>9</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5515,22 +5521,22 @@
         <v>1535</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5541,25 +5547,25 @@
         <v>9</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5570,25 +5576,25 @@
         <v>9</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5602,22 +5608,22 @@
         <v>1361</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5631,22 +5637,22 @@
         <v>2238</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5660,22 +5666,22 @@
         <v>2248</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -5689,22 +5695,22 @@
         <v>2247</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>488</v>
+        <v>569</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -5718,22 +5724,22 @@
         <v>1362</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5747,22 +5753,22 @@
         <v>1472</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5776,22 +5782,22 @@
         <v>1363</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5805,22 +5811,22 @@
         <v>1524</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5831,25 +5837,25 @@
         <v>9</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -5863,22 +5869,22 @@
         <v>1974</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -5892,22 +5898,22 @@
         <v>2480</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -5921,22 +5927,22 @@
         <v>2485</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5953,19 +5959,19 @@
         <v>27</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5976,25 +5982,25 @@
         <v>9</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -6005,25 +6011,25 @@
         <v>9</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -6034,25 +6040,25 @@
         <v>9</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -6066,22 +6072,22 @@
         <v>1364</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -6092,25 +6098,25 @@
         <v>9</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -6121,25 +6127,25 @@
         <v>9</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -6150,25 +6156,25 @@
         <v>9</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -6182,22 +6188,22 @@
         <v>1534</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -6211,22 +6217,22 @@
         <v>2464</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -6237,25 +6243,25 @@
         <v>9</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -6269,22 +6275,22 @@
         <v>1533</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -6298,22 +6304,22 @@
         <v>2506</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -6327,22 +6333,22 @@
         <v>1973</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -6356,22 +6362,22 @@
         <v>1985</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -6382,25 +6388,25 @@
         <v>9</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -6411,25 +6417,25 @@
         <v>9</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -6440,25 +6446,25 @@
         <v>9</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -6472,22 +6478,22 @@
         <v>1469</v>
       </c>
       <c r="D150" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="G150" s="1" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -6501,22 +6507,22 @@
         <v>1421</v>
       </c>
       <c r="D151" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="G151" s="1" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -6530,22 +6536,22 @@
         <v>2555</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -6556,25 +6562,25 @@
         <v>9</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -6588,22 +6594,22 @@
         <v>2358</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -6614,25 +6620,25 @@
         <v>9</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -6646,22 +6652,22 @@
         <v>2483</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -6672,25 +6678,25 @@
         <v>19</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="F157" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="G157" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H157" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="I157" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -6701,25 +6707,25 @@
         <v>19</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -6730,7 +6736,7 @@
         <v>19</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="D159" s="1">
         <v>545</v>
@@ -6739,16 +6745,16 @@
         <v>76545</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -6762,22 +6768,22 @@
         <v>2543</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>479</v>
+        <v>574</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/demos/structures.xlsx
+++ b/demos/structures.xlsx
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/demos/structures.xlsx
+++ b/demos/structures.xlsx
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
